--- a/Files/college_info/all_colleges/IARE/IARE_placements.xlsx
+++ b/Files/college_info/all_colleges/IARE/IARE_placements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91703\Desktop\gitt\PYTHON PROJECT\github\python_project-dataset\Files\college_info\all_colleges\IARE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249D5A77-2984-437C-BD76-40D0F0EA9105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B7E332-2BAB-4D03-ABB1-6A3EBBE56482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>AMAZON</t>
   </si>
@@ -164,6 +164,60 @@
   </si>
   <si>
     <t>OFFERS</t>
+  </si>
+  <si>
+    <t>AMAZON-2</t>
+  </si>
+  <si>
+    <t>AMAZON-3</t>
+  </si>
+  <si>
+    <t>AMAZON-5</t>
+  </si>
+  <si>
+    <t>ACCOLITE DIGITAL-2</t>
+  </si>
+  <si>
+    <t>MADHURA GROUP-2</t>
+  </si>
+  <si>
+    <t>BELCAN-2</t>
+  </si>
+  <si>
+    <t>TATA CONSULTANCY SERVICES (TCS)-2</t>
+  </si>
+  <si>
+    <t>INFOSYS-2</t>
+  </si>
+  <si>
+    <t>ZENSAR-2</t>
+  </si>
+  <si>
+    <t>VALUELABS-2</t>
+  </si>
+  <si>
+    <t>COGNIZANT-2</t>
+  </si>
+  <si>
+    <t>ACCENTURE-2</t>
+  </si>
+  <si>
+    <t>COGNIZANT-3</t>
+  </si>
+  <si>
+    <t>CAPGEMINI-2</t>
+  </si>
+  <si>
+    <t>LARSEN AND TOUBRO INFOTECH (LTI)-2</t>
+  </si>
+  <si>
+    <t>INFOSYS-3</t>
+  </si>
+  <si>
+    <t>VIRTUSA-2</t>
+  </si>
+  <si>
+    <t>INFOR-2</t>
   </si>
 </sst>
 </file>
@@ -277,7 +331,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -494,7 +559,7 @@
   <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D62"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -538,7 +603,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C3" s="4">
         <v>20</v>
@@ -552,7 +617,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C4" s="4">
         <v>20</v>
@@ -566,7 +631,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C5" s="4">
         <v>16.5</v>
@@ -650,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C11" s="8">
         <v>8</v>
@@ -818,7 +883,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="C23" s="8">
         <v>6</v>
@@ -902,7 +967,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C29" s="4">
         <v>5.5</v>
@@ -916,7 +981,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C30" s="8">
         <v>5</v>
@@ -930,7 +995,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C31" s="8">
         <v>5</v>
@@ -986,7 +1051,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="C35" s="8">
         <v>4.5</v>
@@ -1028,7 +1093,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C38" s="4">
         <v>4.25</v>
@@ -1070,7 +1135,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C41" s="4">
         <v>4</v>
@@ -1084,7 +1149,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C42" s="4">
         <v>4</v>
@@ -1098,7 +1163,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C43" s="4">
         <v>4</v>
@@ -1140,7 +1205,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C46" s="4">
         <v>4</v>
@@ -1224,7 +1289,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C52" s="8">
         <v>3.6</v>
@@ -1252,7 +1317,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C54" s="8">
         <v>3.5</v>
@@ -1294,7 +1359,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C57" s="8">
         <v>3.5</v>
@@ -1364,7 +1429,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C62" s="8">
         <v>3</v>
@@ -1379,6 +1444,9 @@
       <sortCondition descending="1" ref="C1:C62"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
